--- a/notebooks/data/output/diff_porcentual_LAM.xlsx
+++ b/notebooks/data/output/diff_porcentual_LAM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>POP</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>GNPXC</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -460,6 +465,9 @@
       <c r="C2" t="n">
         <v>-3.815155047135888</v>
       </c>
+      <c r="D2" t="n">
+        <v>-21.7285019360561</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -471,6 +479,9 @@
       <c r="C3" t="n">
         <v>-3.617706034003404</v>
       </c>
+      <c r="D3" t="n">
+        <v>-25.08060966185799</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -482,6 +493,9 @@
       <c r="C4" t="n">
         <v>-3.295588763929543</v>
       </c>
+      <c r="D4" t="n">
+        <v>-27.10010129686633</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -493,6 +507,9 @@
       <c r="C5" t="n">
         <v>-2.871311375045916</v>
       </c>
+      <c r="D5" t="n">
+        <v>-27.06908960397979</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -504,6 +521,9 @@
       <c r="C6" t="n">
         <v>-2.352886144634671</v>
       </c>
+      <c r="D6" t="n">
+        <v>-28.8825220754527</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -515,6 +535,9 @@
       <c r="C7" t="n">
         <v>-1.743734241260364</v>
       </c>
+      <c r="D7" t="n">
+        <v>-29.94859058006045</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -526,6 +549,9 @@
       <c r="C8" t="n">
         <v>-1.120156666764762</v>
       </c>
+      <c r="D8" t="n">
+        <v>-25.89324583683593</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -537,6 +563,9 @@
       <c r="C9" t="n">
         <v>-0.4222568049491471</v>
       </c>
+      <c r="D9" t="n">
+        <v>-19.93608370400428</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -548,6 +577,9 @@
       <c r="C10" t="n">
         <v>0.3684442398899344</v>
       </c>
+      <c r="D10" t="n">
+        <v>-16.82127840733422</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -559,6 +591,9 @@
       <c r="C11" t="n">
         <v>1.230769230769231</v>
       </c>
+      <c r="D11" t="n">
+        <v>-12.86973756267729</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -570,6 +605,9 @@
       <c r="C12" t="n">
         <v>2.11082215166648</v>
       </c>
+      <c r="D12" t="n">
+        <v>-8.211208407277148</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -581,6 +619,9 @@
       <c r="C13" t="n">
         <v>2.977468459579256</v>
       </c>
+      <c r="D13" t="n">
+        <v>-7.566958904969685</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -592,6 +633,9 @@
       <c r="C14" t="n">
         <v>3.80174969179877</v>
       </c>
+      <c r="D14" t="n">
+        <v>-6.956106265842839</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -603,6 +647,9 @@
       <c r="C15" t="n">
         <v>4.610926166893115</v>
       </c>
+      <c r="D15" t="n">
+        <v>-4.780545139431</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -614,6 +661,9 @@
       <c r="C16" t="n">
         <v>5.341240389625369</v>
       </c>
+      <c r="D16" t="n">
+        <v>-5.055153423506624</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -625,6 +675,9 @@
       <c r="C17" t="n">
         <v>6.073857833228109</v>
       </c>
+      <c r="D17" t="n">
+        <v>0.4800652948802238</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -636,6 +689,9 @@
       <c r="C18" t="n">
         <v>6.51405474645861</v>
       </c>
+      <c r="D18" t="n">
+        <v>12.27015730682708</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -647,6 +703,9 @@
       <c r="C19" t="n">
         <v>6.853049611651373</v>
       </c>
+      <c r="D19" t="n">
+        <v>18.24331659142144</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -658,6 +717,9 @@
       <c r="C20" t="n">
         <v>7.105407699605533</v>
       </c>
+      <c r="D20" t="n">
+        <v>21.94851821104215</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -669,6 +731,9 @@
       <c r="C21" t="n">
         <v>7.163226129534832</v>
       </c>
+      <c r="D21" t="n">
+        <v>26.64014873022778</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -680,6 +745,9 @@
       <c r="C22" t="n">
         <v>6.993608548629833</v>
       </c>
+      <c r="D22" t="n">
+        <v>38.03504935997214</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -691,6 +759,9 @@
       <c r="C23" t="n">
         <v>6.847839595675048</v>
       </c>
+      <c r="D23" t="n">
+        <v>45.68189272286769</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -702,6 +773,9 @@
       <c r="C24" t="n">
         <v>6.723516756952905</v>
       </c>
+      <c r="D24" t="n">
+        <v>56.21589622837237</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -713,6 +787,9 @@
       <c r="C25" t="n">
         <v>6.661635108437479</v>
       </c>
+      <c r="D25" t="n">
+        <v>70.5583284097419</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -723,6 +800,9 @@
       </c>
       <c r="C26" t="n">
         <v>6.667453918572257</v>
+      </c>
+      <c r="D26" t="n">
+        <v>84.2374238461634</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/data/output/diff_porcentual_LAM.xlsx
+++ b/notebooks/data/output/diff_porcentual_LAM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,11 +449,6 @@
           <t>POP</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>GNPXC</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -465,344 +460,335 @@
       <c r="C2" t="n">
         <v>-3.815155047135888</v>
       </c>
-      <c r="D2" t="n">
-        <v>-21.7285019360561</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.059146306243864</v>
+        <v>-2.437685138357063</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.617706034003404</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-25.08060966185799</v>
+        <v>-3.712942265768863</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="B4" t="n">
-        <v>-3.045146311423157</v>
+        <v>-2.059146306243864</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.295588763929543</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-27.10010129686633</v>
+        <v>-3.617706034003404</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="B5" t="n">
-        <v>-3.33247258997673</v>
+        <v>-2.870622443307341</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.871311375045916</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-27.06908960397979</v>
+        <v>-3.45693870370553</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1978</v>
+        <v>1974</v>
       </c>
       <c r="B6" t="n">
-        <v>-4.016276090724145</v>
+        <v>-3.045146311423157</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.352886144634671</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-28.8825220754527</v>
+        <v>-3.295588763929543</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1980</v>
+        <v>1975</v>
       </c>
       <c r="B7" t="n">
-        <v>-3.997349972620891</v>
+        <v>-3.687593098962889</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.743734241260364</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-29.94859058006045</v>
+        <v>-3.100350054686251</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1982</v>
+        <v>1976</v>
       </c>
       <c r="B8" t="n">
-        <v>-3.344407530454043</v>
+        <v>-3.33247258997673</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.120156666764762</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-25.89324583683593</v>
+        <v>-2.871311375045916</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1984</v>
+        <v>1977</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.62605252105043</v>
+        <v>-3.98798368426854</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.4222568049491471</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-19.93608370400428</v>
+        <v>-2.611483828900102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1986</v>
+        <v>1978</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.368580697913655</v>
+        <v>-4.016276090724145</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3684442398899344</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-16.82127840733422</v>
+        <v>-2.352886144634671</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1988</v>
+        <v>1979</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.312699974585729</v>
+        <v>-3.670363894656356</v>
       </c>
       <c r="C11" t="n">
-        <v>1.230769230769231</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-12.86973756267729</v>
+        <v>-2.043173035146693</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1990</v>
+        <v>1980</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.113253868268866</v>
+        <v>-3.997349972620891</v>
       </c>
       <c r="C12" t="n">
-        <v>2.11082215166648</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-8.211208407277148</v>
+        <v>-1.743734241260364</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1992</v>
+        <v>1981</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.805536808140026</v>
+        <v>-3.401222683824762</v>
       </c>
       <c r="C13" t="n">
-        <v>2.977468459579256</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-7.566958904969685</v>
+        <v>-1.42786050606745</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1994</v>
+        <v>1982</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.89784008028589</v>
+        <v>-3.344407530454043</v>
       </c>
       <c r="C14" t="n">
-        <v>3.80174969179877</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-6.956106265842839</v>
+        <v>-1.120156666764762</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1996</v>
+        <v>1983</v>
       </c>
       <c r="B15" t="n">
-        <v>-2.740838493553941</v>
+        <v>-2.869887280739928</v>
       </c>
       <c r="C15" t="n">
-        <v>4.610926166893115</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-4.780545139431</v>
+        <v>-0.7865851103942352</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1998</v>
+        <v>1984</v>
       </c>
       <c r="B16" t="n">
-        <v>-2.747127600344156</v>
+        <v>-2.62605252105043</v>
       </c>
       <c r="C16" t="n">
-        <v>5.341240389625369</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-5.055153423506624</v>
+        <v>-0.4222568049491471</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2000</v>
+        <v>1985</v>
       </c>
       <c r="B17" t="n">
-        <v>-3.669484224588916</v>
+        <v>-2.292054212064855</v>
       </c>
       <c r="C17" t="n">
-        <v>6.073857833228109</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.4800652948802238</v>
+        <v>-0.04595876770228764</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2002</v>
+        <v>1986</v>
       </c>
       <c r="B18" t="n">
-        <v>-3.521585613314384</v>
+        <v>-2.368580697913655</v>
       </c>
       <c r="C18" t="n">
-        <v>6.51405474645861</v>
-      </c>
-      <c r="D18" t="n">
-        <v>12.27015730682708</v>
+        <v>0.3684442398899344</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2004</v>
+        <v>1987</v>
       </c>
       <c r="B19" t="n">
-        <v>-3.927343224237035</v>
+        <v>-2.14677392874735</v>
       </c>
       <c r="C19" t="n">
-        <v>6.853049611651373</v>
-      </c>
-      <c r="D19" t="n">
-        <v>18.24331659142144</v>
+        <v>0.7958455798958499</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2006</v>
+        <v>1988</v>
       </c>
       <c r="B20" t="n">
-        <v>-4.514357176135942</v>
+        <v>-2.312699974585729</v>
       </c>
       <c r="C20" t="n">
-        <v>7.105407699605533</v>
-      </c>
-      <c r="D20" t="n">
-        <v>21.94851821104215</v>
+        <v>1.230769230769231</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2008</v>
+        <v>1989</v>
       </c>
       <c r="B21" t="n">
-        <v>-4.788213627992644</v>
+        <v>-2.089490195569016</v>
       </c>
       <c r="C21" t="n">
-        <v>7.163226129534832</v>
-      </c>
-      <c r="D21" t="n">
-        <v>26.64014873022778</v>
+        <v>1.670904889632029</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2010</v>
+        <v>1990</v>
       </c>
       <c r="B22" t="n">
-        <v>-3.299691600279327</v>
+        <v>-2.113253868268866</v>
       </c>
       <c r="C22" t="n">
-        <v>6.993608548629833</v>
-      </c>
-      <c r="D22" t="n">
-        <v>38.03504935997214</v>
+        <v>2.11082215166648</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2012</v>
+        <v>1991</v>
       </c>
       <c r="B23" t="n">
-        <v>-5.475138555636802</v>
+        <v>-1.901434777564362</v>
       </c>
       <c r="C23" t="n">
-        <v>6.847839595675048</v>
-      </c>
-      <c r="D23" t="n">
-        <v>45.68189272286769</v>
+        <v>2.552283091739876</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2014</v>
+        <v>1992</v>
       </c>
       <c r="B24" t="n">
-        <v>-5.986522959659051</v>
+        <v>-1.805536808140026</v>
       </c>
       <c r="C24" t="n">
-        <v>6.723516756952905</v>
-      </c>
-      <c r="D24" t="n">
-        <v>56.21589622837237</v>
+        <v>2.977468459579256</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2016</v>
+        <v>1993</v>
       </c>
       <c r="B25" t="n">
-        <v>-6.401470033698263</v>
+        <v>-1.717922071257203</v>
       </c>
       <c r="C25" t="n">
-        <v>6.661635108437479</v>
-      </c>
-      <c r="D25" t="n">
-        <v>70.5583284097419</v>
+        <v>3.391027066471212</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2018</v>
+        <v>1994</v>
       </c>
       <c r="B26" t="n">
-        <v>-6.907207287666366</v>
+        <v>-1.89784008028589</v>
       </c>
       <c r="C26" t="n">
-        <v>6.667453918572257</v>
-      </c>
-      <c r="D26" t="n">
-        <v>84.2374238461634</v>
+        <v>3.80174969179877</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1995</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-2.225958690792371</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4.214479449196745</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1996</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-2.740838493553941</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4.610926166893115</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1997</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-3.087925000315883</v>
+      </c>
+      <c r="C29" t="n">
+        <v>4.970601364193653</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1998</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-2.747127600344156</v>
+      </c>
+      <c r="C30" t="n">
+        <v>5.341240389625369</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-3.236101600145756</v>
+      </c>
+      <c r="C31" t="n">
+        <v>5.707748244734202</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-3.669484224588916</v>
+      </c>
+      <c r="C32" t="n">
+        <v>6.073857833228109</v>
       </c>
     </row>
   </sheetData>
